--- a/COMPARTIR/4PL servicios.xlsx
+++ b/COMPARTIR/4PL servicios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\OFICINA\COMPARTIR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{760FEC8C-BA6E-421E-96B6-BBF0E440A77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC309B1D-D445-4E49-99D0-882B9A603C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{CCDEB447-8040-49B7-B390-67DA244413D9}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
   <si>
     <t>FECHA</t>
   </si>
@@ -110,13 +110,25 @@
   </si>
   <si>
     <t>SERVICIOS PRESTADOS A 4PL</t>
+  </si>
+  <si>
+    <t>SALIDA</t>
+  </si>
+  <si>
+    <t>DESTINO</t>
+  </si>
+  <si>
+    <t>4PL</t>
+  </si>
+  <si>
+    <t>RANZA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,16 +136,47 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -142,62 +185,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -206,34 +203,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6F39FD-C886-4442-B6FC-943D34DFB40C}">
-  <dimension ref="B1:H16"/>
+  <dimension ref="B1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="B1" sqref="B1:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,322 +548,423 @@
     <col min="5" max="5" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="2:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="J2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>45180</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H3">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4">
+      <c r="G3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>45180</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H4">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5">
+      <c r="G4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>45180</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>7</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="8">
         <v>60</v>
       </c>
-      <c r="H5">
+      <c r="J5" s="8">
         <v>155</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
         <v>4</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>45181</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>8</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H6">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7">
+      <c r="G6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
         <v>5</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>45181</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>9</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H7">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8">
+      <c r="G7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
         <v>6</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <v>45181</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>10</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H8">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9">
+      <c r="G8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
         <v>7</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="2">
         <v>45182</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>11</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H9">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10">
+      <c r="G9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
         <v>8</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="2">
         <v>45182</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>12</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H10">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11">
+      <c r="G10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
         <v>9</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="2">
         <v>45182</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>13</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H11">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12">
+      <c r="G11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
         <v>10</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="2">
         <v>45183</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>14</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H12">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13">
+      <c r="G12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
         <v>11</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="2">
         <v>45183</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>15</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H13">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14">
+      <c r="G13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
         <v>12</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="2">
         <v>45183</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>16</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H14">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15">
+      <c r="G14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
         <v>13</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="2">
         <v>45184</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>17</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H15">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="7" t="s">
+      <c r="G15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="6">
-        <f>SUM(H3:H15)</f>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="7">
+        <f>SUM(J3:J15)</f>
         <v>1295</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="B1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>